--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.00273318332613</v>
+        <v>6.312821333333335</v>
       </c>
       <c r="H2">
-        <v>6.00273318332613</v>
+        <v>18.938464</v>
       </c>
       <c r="I2">
-        <v>0.3022110247354993</v>
+        <v>0.3104630857074662</v>
       </c>
       <c r="J2">
-        <v>0.3022110247354993</v>
+        <v>0.3104630857074661</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.2697250123528</v>
+        <v>39.92590366666667</v>
       </c>
       <c r="N2">
-        <v>29.2697250123528</v>
+        <v>119.777711</v>
       </c>
       <c r="O2">
-        <v>0.813356797162906</v>
+        <v>0.8537340759835568</v>
       </c>
       <c r="P2">
-        <v>0.813356797162906</v>
+        <v>0.8537340759835568</v>
       </c>
       <c r="Q2">
-        <v>175.698349598481</v>
+        <v>252.045096419545</v>
       </c>
       <c r="R2">
-        <v>175.698349598481</v>
+        <v>2268.405867775904</v>
       </c>
       <c r="S2">
-        <v>0.2458053911461855</v>
+        <v>0.2650529156034674</v>
       </c>
       <c r="T2">
-        <v>0.2458053911461855</v>
+        <v>0.2650529156034674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.00273318332613</v>
+        <v>6.312821333333335</v>
       </c>
       <c r="H3">
-        <v>6.00273318332613</v>
+        <v>18.938464</v>
       </c>
       <c r="I3">
-        <v>0.3022110247354993</v>
+        <v>0.3104630857074662</v>
       </c>
       <c r="J3">
-        <v>0.3022110247354993</v>
+        <v>0.3104630857074661</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.0627015641567</v>
+        <v>2.145018</v>
       </c>
       <c r="N3">
-        <v>2.0627015641567</v>
+        <v>6.435054</v>
       </c>
       <c r="O3">
-        <v>0.05731903313124258</v>
+        <v>0.04586683811810605</v>
       </c>
       <c r="P3">
-        <v>0.05731903313124258</v>
+        <v>0.04586683811810605</v>
       </c>
       <c r="Q3">
-        <v>12.38184712646214</v>
+        <v>13.541115390784</v>
       </c>
       <c r="R3">
-        <v>12.38184712646214</v>
+        <v>121.870038517056</v>
       </c>
       <c r="S3">
-        <v>0.01732244373944086</v>
+        <v>0.01423996009379203</v>
       </c>
       <c r="T3">
-        <v>0.01732244373944086</v>
+        <v>0.01423996009379203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.00273318332613</v>
+        <v>6.312821333333335</v>
       </c>
       <c r="H4">
-        <v>6.00273318332613</v>
+        <v>18.938464</v>
       </c>
       <c r="I4">
-        <v>0.3022110247354993</v>
+        <v>0.3104630857074662</v>
       </c>
       <c r="J4">
-        <v>0.3022110247354993</v>
+        <v>0.3104630857074661</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.65390207341314</v>
+        <v>4.695284333333333</v>
       </c>
       <c r="N4">
-        <v>4.65390207341314</v>
+        <v>14.085853</v>
       </c>
       <c r="O4">
-        <v>0.1293241697058514</v>
+        <v>0.1003990858983372</v>
       </c>
       <c r="P4">
-        <v>0.1293241697058514</v>
+        <v>0.1003990858983372</v>
       </c>
       <c r="Q4">
-        <v>27.93613240802734</v>
+        <v>29.64049110553245</v>
       </c>
       <c r="R4">
-        <v>27.93613240802734</v>
+        <v>266.7644199497921</v>
       </c>
       <c r="S4">
-        <v>0.03908318984987298</v>
+        <v>0.03117021001020672</v>
       </c>
       <c r="T4">
-        <v>0.03908318984987298</v>
+        <v>0.03117021001020672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.218199153867269</v>
+        <v>9.354969666666667</v>
       </c>
       <c r="H5">
-        <v>9.218199153867269</v>
+        <v>28.064909</v>
       </c>
       <c r="I5">
-        <v>0.4640954924074266</v>
+        <v>0.4600752335690602</v>
       </c>
       <c r="J5">
-        <v>0.4640954924074266</v>
+        <v>0.4600752335690601</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.2697250123528</v>
+        <v>39.92590366666667</v>
       </c>
       <c r="N5">
-        <v>29.2697250123528</v>
+        <v>119.777711</v>
       </c>
       <c r="O5">
-        <v>0.813356797162906</v>
+        <v>0.8537340759835568</v>
       </c>
       <c r="P5">
-        <v>0.813356797162906</v>
+        <v>0.8537340759835568</v>
       </c>
       <c r="Q5">
-        <v>269.8141543427982</v>
+        <v>373.5056177159221</v>
       </c>
       <c r="R5">
-        <v>269.8141543427982</v>
+        <v>3361.550559443299</v>
       </c>
       <c r="S5">
-        <v>0.3774752232822463</v>
+        <v>0.3927819044140006</v>
       </c>
       <c r="T5">
-        <v>0.3774752232822463</v>
+        <v>0.3927819044140006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.218199153867269</v>
+        <v>9.354969666666667</v>
       </c>
       <c r="H6">
-        <v>9.218199153867269</v>
+        <v>28.064909</v>
       </c>
       <c r="I6">
-        <v>0.4640954924074266</v>
+        <v>0.4600752335690602</v>
       </c>
       <c r="J6">
-        <v>0.4640954924074266</v>
+        <v>0.4600752335690601</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.0627015641567</v>
+        <v>2.145018</v>
       </c>
       <c r="N6">
-        <v>2.0627015641567</v>
+        <v>6.435054</v>
       </c>
       <c r="O6">
-        <v>0.05731903313124258</v>
+        <v>0.04586683811810605</v>
       </c>
       <c r="P6">
-        <v>0.05731903313124258</v>
+        <v>0.04586683811810605</v>
       </c>
       <c r="Q6">
-        <v>19.01439381338999</v>
+        <v>20.066578324454</v>
       </c>
       <c r="R6">
-        <v>19.01439381338999</v>
+        <v>180.599204920086</v>
       </c>
       <c r="S6">
-        <v>0.02660150490536163</v>
+        <v>0.02110219626026191</v>
       </c>
       <c r="T6">
-        <v>0.02660150490536163</v>
+        <v>0.02110219626026191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.218199153867269</v>
+        <v>9.354969666666667</v>
       </c>
       <c r="H7">
-        <v>9.218199153867269</v>
+        <v>28.064909</v>
       </c>
       <c r="I7">
-        <v>0.4640954924074266</v>
+        <v>0.4600752335690602</v>
       </c>
       <c r="J7">
-        <v>0.4640954924074266</v>
+        <v>0.4600752335690601</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.65390207341314</v>
+        <v>4.695284333333333</v>
       </c>
       <c r="N7">
-        <v>4.65390207341314</v>
+        <v>14.085853</v>
       </c>
       <c r="O7">
-        <v>0.1293241697058514</v>
+        <v>0.1003990858983372</v>
       </c>
       <c r="P7">
-        <v>0.1293241697058514</v>
+        <v>0.1003990858983372</v>
       </c>
       <c r="Q7">
-        <v>42.90059615531814</v>
+        <v>43.92424251470856</v>
       </c>
       <c r="R7">
-        <v>42.90059615531814</v>
+        <v>395.318182632377</v>
       </c>
       <c r="S7">
-        <v>0.06001876421981873</v>
+        <v>0.04619113289479763</v>
       </c>
       <c r="T7">
-        <v>0.06001876421981873</v>
+        <v>0.04619113289479762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.64178838446073</v>
+        <v>4.665774</v>
       </c>
       <c r="H8">
-        <v>4.64178838446073</v>
+        <v>13.997322</v>
       </c>
       <c r="I8">
-        <v>0.2336934828570741</v>
+        <v>0.2294616807234737</v>
       </c>
       <c r="J8">
-        <v>0.2336934828570741</v>
+        <v>0.2294616807234737</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.2697250123528</v>
+        <v>39.92590366666667</v>
       </c>
       <c r="N8">
-        <v>29.2697250123528</v>
+        <v>119.777711</v>
       </c>
       <c r="O8">
-        <v>0.813356797162906</v>
+        <v>0.8537340759835568</v>
       </c>
       <c r="P8">
-        <v>0.813356797162906</v>
+        <v>0.8537340759835568</v>
       </c>
       <c r="Q8">
-        <v>135.8638695786989</v>
+        <v>186.285243254438</v>
       </c>
       <c r="R8">
-        <v>135.8638695786989</v>
+        <v>1676.567189289942</v>
       </c>
       <c r="S8">
-        <v>0.1900761827344743</v>
+        <v>0.1958992559660888</v>
       </c>
       <c r="T8">
-        <v>0.1900761827344743</v>
+        <v>0.1958992559660887</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.64178838446073</v>
+        <v>4.665774</v>
       </c>
       <c r="H9">
-        <v>4.64178838446073</v>
+        <v>13.997322</v>
       </c>
       <c r="I9">
-        <v>0.2336934828570741</v>
+        <v>0.2294616807234737</v>
       </c>
       <c r="J9">
-        <v>0.2336934828570741</v>
+        <v>0.2294616807234737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.0627015641567</v>
+        <v>2.145018</v>
       </c>
       <c r="N9">
-        <v>2.0627015641567</v>
+        <v>6.435054</v>
       </c>
       <c r="O9">
-        <v>0.05731903313124258</v>
+        <v>0.04586683811810605</v>
       </c>
       <c r="P9">
-        <v>0.05731903313124258</v>
+        <v>0.04586683811810605</v>
       </c>
       <c r="Q9">
-        <v>9.574624161111549</v>
+        <v>10.008169213932</v>
       </c>
       <c r="R9">
-        <v>9.574624161111549</v>
+        <v>90.073522925388</v>
       </c>
       <c r="S9">
-        <v>0.0133950844864401</v>
+        <v>0.0105246817640521</v>
       </c>
       <c r="T9">
-        <v>0.0133950844864401</v>
+        <v>0.0105246817640521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.64178838446073</v>
+        <v>4.665774</v>
       </c>
       <c r="H10">
-        <v>4.64178838446073</v>
+        <v>13.997322</v>
       </c>
       <c r="I10">
-        <v>0.2336934828570741</v>
+        <v>0.2294616807234737</v>
       </c>
       <c r="J10">
-        <v>0.2336934828570741</v>
+        <v>0.2294616807234737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.65390207341314</v>
+        <v>4.695284333333333</v>
       </c>
       <c r="N10">
-        <v>4.65390207341314</v>
+        <v>14.085853</v>
       </c>
       <c r="O10">
-        <v>0.1293241697058514</v>
+        <v>0.1003990858983372</v>
       </c>
       <c r="P10">
-        <v>0.1293241697058514</v>
+        <v>0.1003990858983372</v>
       </c>
       <c r="Q10">
-        <v>21.60242858678682</v>
+        <v>21.907135565074</v>
       </c>
       <c r="R10">
-        <v>21.60242858678682</v>
+        <v>197.164220085666</v>
       </c>
       <c r="S10">
-        <v>0.03022221563615974</v>
+        <v>0.02303774299333287</v>
       </c>
       <c r="T10">
-        <v>0.03022221563615974</v>
+        <v>0.02303774299333286</v>
       </c>
     </row>
   </sheetData>
